--- a/KiCAD Calculators.xlsx
+++ b/KiCAD Calculators.xlsx
@@ -4,48 +4,66 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="16740" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="16740" windowHeight="8100" tabRatio="665" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Circle Radius" sheetId="1" r:id="rId1"/>
     <sheet name="Circle Point" sheetId="2" r:id="rId2"/>
     <sheet name="Polar to Cartesian Coords" sheetId="4" r:id="rId3"/>
-    <sheet name="30 Pixel Layout" sheetId="5" r:id="rId4"/>
+    <sheet name="30 Pixel Layout" sheetId="7" r:id="rId4"/>
     <sheet name="20 Pixel Layout" sheetId="6" r:id="rId5"/>
+    <sheet name="30 Cap Layout" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="CenterX" localSheetId="4">'Circle Radius'!#REF!</definedName>
+    <definedName name="CenterX" localSheetId="5">'Circle Radius'!#REF!</definedName>
     <definedName name="CenterX" localSheetId="3">'Circle Radius'!#REF!</definedName>
     <definedName name="CenterX">'Circle Radius'!#REF!</definedName>
     <definedName name="CenterY" localSheetId="4">'Circle Radius'!#REF!</definedName>
+    <definedName name="CenterY" localSheetId="5">'Circle Radius'!#REF!</definedName>
     <definedName name="CenterY" localSheetId="3">'Circle Radius'!#REF!</definedName>
     <definedName name="CenterY">'Circle Radius'!#REF!</definedName>
     <definedName name="LEDCount" localSheetId="4">'20 Pixel Layout'!$N$7</definedName>
-    <definedName name="LEDCount" localSheetId="3">'30 Pixel Layout'!$N$7</definedName>
+    <definedName name="LEDCount" localSheetId="5">'30 Cap Layout'!$O$7</definedName>
+    <definedName name="LEDCount" localSheetId="3">'30 Pixel Layout'!$O$7</definedName>
     <definedName name="LEDCount">'Polar to Cartesian Coords'!$N$7</definedName>
+    <definedName name="LEDRotation" localSheetId="5">'30 Cap Layout'!$O$10</definedName>
+    <definedName name="LEDRotation" localSheetId="3">'30 Pixel Layout'!$O$10</definedName>
+    <definedName name="LEDRotation">'20 Pixel Layout'!$N$10</definedName>
     <definedName name="LEDSize" localSheetId="4">'20 Pixel Layout'!$N$8</definedName>
-    <definedName name="LEDSize" localSheetId="3">'30 Pixel Layout'!$N$8</definedName>
+    <definedName name="LEDSize" localSheetId="5">'30 Cap Layout'!$O$8</definedName>
+    <definedName name="LEDSize" localSheetId="3">'30 Pixel Layout'!$O$8</definedName>
     <definedName name="LEDSize">'Polar to Cartesian Coords'!$N$8</definedName>
+    <definedName name="LEDSizeBuffer" localSheetId="5">'30 Cap Layout'!$O$9</definedName>
+    <definedName name="LEDSizeBuffer" localSheetId="3">'30 Pixel Layout'!$O$9</definedName>
+    <definedName name="LEDSizeBuffer">'20 Pixel Layout'!$N$9</definedName>
     <definedName name="PointX" localSheetId="4">'Circle Radius'!#REF!</definedName>
+    <definedName name="PointX" localSheetId="5">'Circle Radius'!#REF!</definedName>
     <definedName name="PointX" localSheetId="3">'Circle Radius'!#REF!</definedName>
     <definedName name="PointX">'Circle Radius'!#REF!</definedName>
     <definedName name="PointY" localSheetId="4">'Circle Radius'!#REF!</definedName>
+    <definedName name="PointY" localSheetId="5">'Circle Radius'!#REF!</definedName>
     <definedName name="PointY" localSheetId="3">'Circle Radius'!#REF!</definedName>
     <definedName name="PointY">'Circle Radius'!#REF!</definedName>
     <definedName name="RadiansInDegree" localSheetId="4">'20 Pixel Layout'!$N$4</definedName>
-    <definedName name="RadiansInDegree" localSheetId="3">'30 Pixel Layout'!$N$4</definedName>
+    <definedName name="RadiansInDegree" localSheetId="5">'30 Cap Layout'!$O$4</definedName>
+    <definedName name="RadiansInDegree" localSheetId="3">'30 Pixel Layout'!$O$4</definedName>
     <definedName name="RadiansInDegree">'Polar to Cartesian Coords'!$N$4</definedName>
     <definedName name="Radius" localSheetId="4">'20 Pixel Layout'!$N$6</definedName>
-    <definedName name="Radius" localSheetId="3">'30 Pixel Layout'!$N$6</definedName>
+    <definedName name="Radius" localSheetId="5">'30 Cap Layout'!$O$6</definedName>
+    <definedName name="Radius" localSheetId="3">'30 Pixel Layout'!$O$6</definedName>
     <definedName name="Radius">'Polar to Cartesian Coords'!$N$6</definedName>
     <definedName name="RingRadius" localSheetId="4">'20 Pixel Layout'!$N$5</definedName>
-    <definedName name="RingRadius" localSheetId="3">'30 Pixel Layout'!$N$5</definedName>
+    <definedName name="RingRadius" localSheetId="5">'30 Cap Layout'!$O$5</definedName>
+    <definedName name="RingRadius" localSheetId="3">'30 Pixel Layout'!$O$5</definedName>
     <definedName name="RingRadius">'Polar to Cartesian Coords'!$N$5</definedName>
-    <definedName name="Xo" localSheetId="4">'20 Pixel Layout'!$N$9</definedName>
-    <definedName name="Xo" localSheetId="3">'30 Pixel Layout'!$N$9</definedName>
+    <definedName name="Xo" localSheetId="4">'20 Pixel Layout'!$N$11</definedName>
+    <definedName name="Xo" localSheetId="5">'30 Cap Layout'!$O$11</definedName>
+    <definedName name="Xo" localSheetId="3">'30 Pixel Layout'!$O$11</definedName>
     <definedName name="Xo">'Polar to Cartesian Coords'!$N$9</definedName>
-    <definedName name="Yo" localSheetId="4">'20 Pixel Layout'!$N$10</definedName>
-    <definedName name="Yo" localSheetId="3">'30 Pixel Layout'!$N$10</definedName>
+    <definedName name="Yo" localSheetId="4">'20 Pixel Layout'!$N$12</definedName>
+    <definedName name="Yo" localSheetId="5">'30 Cap Layout'!$O$12</definedName>
+    <definedName name="Yo" localSheetId="3">'30 Pixel Layout'!$O$12</definedName>
     <definedName name="Yo">'Polar to Cartesian Coords'!$N$10</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -53,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
   <si>
     <t>CenterX</t>
   </si>
@@ -263,6 +281,144 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>LED Size Buffer</t>
+  </si>
+  <si>
+    <t>LED Rotation</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>C/R</t>
+  </si>
+  <si>
+    <t>20 Radius</t>
+  </si>
+  <si>
+    <t>15 Radius</t>
+  </si>
+  <si>
+    <t>Actual 20 pixel Inner</t>
+  </si>
+  <si>
+    <t>Actual 20 pixel Outer</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Orient</t>
+  </si>
+  <si>
+    <t>30 Ring Cap ring</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1</t>
   </si>
 </sst>
 </file>
@@ -409,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -443,20 +599,130 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="64">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -556,6 +822,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -632,9 +904,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -643,9 +912,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -946,11 +1212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198127616"/>
-        <c:axId val="198129152"/>
+        <c:axId val="199168384"/>
+        <c:axId val="199169920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198127616"/>
+        <c:axId val="199168384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,12 +1226,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198129152"/>
+        <c:crossAx val="199169920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198129152"/>
+        <c:axId val="199169920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198127616"/>
+        <c:crossAx val="199168384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1055,94 +1321,94 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>37.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.680534327681507</c:v>
+                  <c:v>34.724239163538492</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.257951923425146</c:v>
+                  <c:v>32.430861154175801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.338131353558957</c:v>
+                  <c:v>28.720097681369143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.092387732677782</c:v>
+                  <c:v>23.754127053601636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.749985424680073</c:v>
+                  <c:v>17.749986202030467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.588118081375832</c:v>
+                  <c:v>10.970085117035788</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9197939394336858</c:v>
+                  <c:v>3.7107382626638894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.9198441532246111</c:v>
+                  <c:v>-3.7107857983859653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-11.588166100581267</c:v>
+                  <c:v>-10.970130575216933</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-18.750029150628524</c:v>
+                  <c:v>-17.750027595928337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-25.092425254333858</c:v>
+                  <c:v>-23.754162574102718</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-30.33816103104483</c:v>
+                  <c:v>-28.72012577605577</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-34.257972459691167</c:v>
+                  <c:v>-32.430880595174301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-36.680544825193543</c:v>
+                  <c:v>-34.724249101183219</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-37.499999999966008</c:v>
+                  <c:v>-35.499999999967827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-36.680523830102977</c:v>
+                  <c:v>-34.724229225830818</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-34.257931387097024</c:v>
+                  <c:v>-32.430841713118511</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-30.338101676018088</c:v>
+                  <c:v>-28.720069586630459</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-25.092350210976225</c:v>
+                  <c:v>-23.754091533057494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-18.749941698697629</c:v>
+                  <c:v>-17.749944808100423</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-11.588070062149372</c:v>
+                  <c:v>-10.97003965883474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.9197437256356551</c:v>
+                  <c:v>-3.7106907269350868</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9198943670084221</c:v>
+                  <c:v>3.7108333341013062</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.588214119765702</c:v>
+                  <c:v>10.970176033378198</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.75007287654298</c:v>
+                  <c:v>17.75006898979402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25.092462775944448</c:v>
+                  <c:v>23.754198094560742</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.338190708475697</c:v>
+                  <c:v>28.720153870690325</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.257992995895087</c:v>
+                  <c:v>32.430900036114011</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.680555322639087</c:v>
+                  <c:v>34.724259038764998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,91 +1423,91 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.796691698135727</c:v>
+                  <c:v>7.3808681409018222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.252630265376904</c:v>
+                  <c:v>14.439156651223469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.041955130482485</c:v>
+                  <c:v>20.866384190190086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.867939964643266</c:v>
+                  <c:v>26.381649833195624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.475961056976971</c:v>
+                  <c:v>30.743909800604865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.664625602017622</c:v>
+                  <c:v>33.762512236576683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.294573539221211</c:v>
+                  <c:v>35.305529617129416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.294568261536838</c:v>
+                  <c:v>35.305524620921538</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.664609999624822</c:v>
+                  <c:v>33.762497466311501</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.475935811775777</c:v>
+                  <c:v>30.743885901814405</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.867906179971047</c:v>
+                  <c:v>26.381617850372592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.041914282892787</c:v>
+                  <c:v>20.866345521138506</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.252584140106936</c:v>
+                  <c:v>14.439112985967899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7966423110828371</c:v>
+                  <c:v>7.3808213878250859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.0490382770105399E-5</c:v>
+                  <c:v>-4.7797562355699777E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.7967410851744701</c:v>
+                  <c:v>-7.3809148939651656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-15.252676390619214</c:v>
+                  <c:v>-14.439200316452856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-22.041995978032215</c:v>
+                  <c:v>-20.866422859203833</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-27.867973749264969</c:v>
+                  <c:v>-26.38168181597084</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-32.475986302119296</c:v>
+                  <c:v>-30.743933699339596</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-35.664641204345763</c:v>
+                  <c:v>-33.762527006780651</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-37.294578816837976</c:v>
+                  <c:v>-35.305534613273281</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-37.294562983784857</c:v>
+                  <c:v>-35.305519624649662</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-35.664594397167377</c:v>
+                  <c:v>-33.762482695985121</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-32.475910566515715</c:v>
+                  <c:v>-30.743862002968211</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-27.867872395248305</c:v>
+                  <c:v>-26.381585867501727</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-22.041873435263142</c:v>
+                  <c:v>-20.86630685204911</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-15.252538014809312</c:v>
+                  <c:v>-14.43906932068615</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.7965929240158287</c:v>
+                  <c:v>-7.3807746347349843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,11 +1522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47180800"/>
-        <c:axId val="47190784"/>
+        <c:axId val="46811008"/>
+        <c:axId val="46812544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47180800"/>
+        <c:axId val="46811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,12 +1536,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47190784"/>
+        <c:crossAx val="46812544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47190784"/>
+        <c:axId val="46812544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1292,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47180800"/>
+        <c:crossAx val="46811008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1365,64 +1631,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>16.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.398770680497581</c:v>
+                  <c:v>15.454667713692698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.202878812135374</c:v>
+                  <c:v>13.146523586542214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.225160824015578</c:v>
+                  <c:v>9.5515050395668073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9528708488254996</c:v>
+                  <c:v>5.0215178352628609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5147114831035052E-5</c:v>
+                  <c:v>-1.0939582933525315E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.9528996603487601</c:v>
+                  <c:v>-5.0215386435852158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-13.225185332557412</c:v>
+                  <c:v>-9.5515227401803529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18.202896618626898</c:v>
+                  <c:v>-13.146536446786092</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-21.398780041913863</c:v>
+                  <c:v>-15.454674474715567</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-22.499999999979607</c:v>
+                  <c:v>-16.24999999998527</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21.39876131904251</c:v>
+                  <c:v>-15.454660952641813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-18.202861005610853</c:v>
+                  <c:v>-13.146510726274505</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-13.225136315449772</c:v>
+                  <c:v>-9.5514873389359458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.9528420372896234</c:v>
+                  <c:v>-5.021497026931395</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5441344483085687E-5</c:v>
+                  <c:v>3.281874879333966E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.9529284718594218</c:v>
+                  <c:v>5.0215594518984714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.225209841075269</c:v>
+                  <c:v>9.5515404407765843</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.202914425085417</c:v>
+                  <c:v>13.146549307006135</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.398789403291346</c:v>
+                  <c:v>15.454681235710417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,61 +1703,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9528852545887068</c:v>
+                  <c:v>5.0215282394251775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.225173078289492</c:v>
+                  <c:v>9.5515138898757446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.202887715385259</c:v>
+                  <c:v>13.14653001666713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.398775361210571</c:v>
+                  <c:v>15.454671094207635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.499999999994902</c:v>
+                  <c:v>16.249999999996319</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.398765999774895</c:v>
+                  <c:v>15.454664333170758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.202869908877233</c:v>
+                  <c:v>13.146517156411335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.225148569735673</c:v>
+                  <c:v>9.551496189253541</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9528564430591446</c:v>
+                  <c:v>5.0215074310982715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.029422966206324E-5</c:v>
+                  <c:v>-2.1879165867045672E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.9529140661056665</c:v>
+                  <c:v>-5.0215490477429814</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-13.225197586819331</c:v>
+                  <c:v>-9.5515315904806268</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-18.202905521860284</c:v>
+                  <c:v>-13.146542876899096</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-21.398784722607456</c:v>
+                  <c:v>-15.454677855216497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-22.499999999954113</c:v>
+                  <c:v>-16.24999999996686</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-21.398756638300426</c:v>
+                  <c:v>-15.454657572105864</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-18.202852102336212</c:v>
+                  <c:v>-13.146504296131708</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-13.225124061157885</c:v>
+                  <c:v>-9.5514784886140287</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.952827631516973</c:v>
+                  <c:v>-5.0214866227622581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,11 +1772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47239936"/>
-        <c:axId val="47241472"/>
+        <c:axId val="199745920"/>
+        <c:axId val="199747456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47239936"/>
+        <c:axId val="199745920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,12 +1786,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47241472"/>
+        <c:crossAx val="199747456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47241472"/>
+        <c:axId val="199747456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1542,7 +1808,317 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47239936"/>
+        <c:crossAx val="199745920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9382735251379505E-3"/>
+          <c:y val="5.3015186555014733E-3"/>
+          <c:w val="0.99506172647486202"/>
+          <c:h val="0.98939696268899702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30 Cap Layout'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'30 Cap Layout'!$E$3:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>34.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.708813984627277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.191870966638469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.224282676266458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.93574707263307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.51369390036194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.195093103355031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2560980922913503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.349485811569437E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.2561440551686571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-14.195136030593412</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20.513731915833496</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-25.935778514877843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30.22430617110631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-33.191885487235275</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-34.708818896360739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-34.708809072830888</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-33.191856445981493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-30.224259181371821</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-25.935715630341281</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20.5136558848532</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-14.195050176090925</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7.2560521294008824</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0484574331541796E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2561900180328243</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.195178957806059</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.513769931267863</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.935809957075598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.224329665891361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.191900007771913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'30 Cap Layout'!$F$3:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.64804492578449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.784697572673149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.450006782380889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.352666309961375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.234701389642023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.882743479617343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.137355499145592</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.89999999999209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.137345729430116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.882724367170201</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.234673769769572</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.352631389785625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.44996608808238</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.784652882789517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6479981934797632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.6480916580826057</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-10.784742262537234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-17.450047476647768</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-23.352701230094794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-28.234729009463287</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-31.882762592006685</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-34.137365268799186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-34.899999999928824</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-34.137335959652752</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-31.882705254665265</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-28.234646149845943</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-23.352596469567533</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-17.449925393752242</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10.784608192886326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51142656"/>
+        <c:axId val="51144192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51142656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51144192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="51144192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51142656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1600,16 +2176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1639,13 +2215,50 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>4760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1671,26 +2284,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:J22" totalsRowShown="0">
-  <autoFilter ref="B3:J22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:J23" totalsRowShown="0">
+  <autoFilter ref="B3:J23"/>
   <tableColumns count="9">
     <tableColumn id="1" name="KiCAD Circle Equations"/>
     <tableColumn id="2" name="CenterX"/>
     <tableColumn id="3" name="CenterY"/>
     <tableColumn id="4" name="PointOnCurveX"/>
     <tableColumn id="5" name="PointOnCurveY"/>
-    <tableColumn id="6" name="Radius" dataDxfId="47">
+    <tableColumn id="6" name="Radius" dataDxfId="63">
       <calculatedColumnFormula>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="R Diff" dataDxfId="46">
+    <tableColumn id="7" name="R Diff" dataDxfId="62">
       <calculatedColumnFormula>G3-Table1[[#This Row],[Radius]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Diameter" dataDxfId="45">
+    <tableColumn id="8" name="Diameter" dataDxfId="61">
       <calculatedColumnFormula>Table1[[#This Row],[Radius]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="D Diff" dataDxfId="44">
+    <tableColumn id="9" name="D Diff" dataDxfId="60">
       <calculatedColumnFormula>I3-Table1[[#This Row],[Diameter]]</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table4791113" displayName="Table4791113" ref="N3:O12" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="N3:O12"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Contant" dataDxfId="1"/>
+    <tableColumn id="2" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1704,10 +2328,10 @@
     <tableColumn id="2" name="CenterX"/>
     <tableColumn id="3" name="CenterY"/>
     <tableColumn id="8" name="Radius"/>
-    <tableColumn id="4" name="PointOnCurveX" dataDxfId="43">
+    <tableColumn id="4" name="PointOnCurveX" dataDxfId="59">
       <calculatedColumnFormula>Table14[[#This Row],[CenterX]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PointOnCurveY" dataDxfId="42">
+    <tableColumn id="5" name="PointOnCurveY" dataDxfId="58">
       <calculatedColumnFormula>Table14[[#This Row],[CenterY]]+Table14[[#This Row],[Radius]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1716,33 +2340,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:K17" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B2:K17" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="B2:K17"/>
   <tableColumns count="10">
     <tableColumn id="1" name="LED #"/>
-    <tableColumn id="3" name="Angle" dataDxfId="40">
+    <tableColumn id="3" name="Angle" dataDxfId="56">
       <calculatedColumnFormula>360/LEDCount * (Table13[[#This Row],[LED '#]]-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Radians" dataDxfId="39">
+    <tableColumn id="6" name="Radians" dataDxfId="55">
       <calculatedColumnFormula>Table13[[#This Row],[Angle]]*RadiansInDegree</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="x" dataDxfId="38">
+    <tableColumn id="4" name="x" dataDxfId="54">
       <calculatedColumnFormula>Radius*COS(Table13[[#This Row],[Radians]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="y" dataDxfId="37">
+    <tableColumn id="5" name="y" dataDxfId="53">
       <calculatedColumnFormula>Radius*SIN(Table13[[#This Row],[Radians]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Name" dataDxfId="36"/>
-    <tableColumn id="2" name="LED Angle" dataDxfId="35">
+    <tableColumn id="9" name="LED Name" dataDxfId="52"/>
+    <tableColumn id="2" name="LED Angle" dataDxfId="51">
       <calculatedColumnFormula>Table13[[#This Row],[Angle]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED X" dataDxfId="34">
+    <tableColumn id="7" name="LED X" dataDxfId="50">
       <calculatedColumnFormula>Xo-Table13[[#This Row],[y]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="LED Y" dataDxfId="33">
+    <tableColumn id="8" name="LED Y" dataDxfId="49">
       <calculatedColumnFormula>Yo-Table13[[#This Row],[x]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="LED SEP" dataDxfId="32">
+    <tableColumn id="10" name="LED SEP" dataDxfId="48">
       <calculatedColumnFormula>SQRT(POWER((Table13[[#This Row],[LED X]]-I4),2) + POWER((Table13[[#This Row],[LED Y]]-J4),2)) - LEDSize</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1751,45 +2375,48 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="M3:N10" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="M3:N10" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46">
   <autoFilter ref="M3:N10"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Contant" dataDxfId="29"/>
-    <tableColumn id="2" name="Value" dataDxfId="28"/>
+    <tableColumn id="1" name="Contant" dataDxfId="45"/>
+    <tableColumn id="2" name="Value" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="B2:K32" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="B2:K32"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table136810" displayName="Table136810" ref="B2:L32" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="B2:L32"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="LED #"/>
-    <tableColumn id="3" name="Angle" dataDxfId="26">
-      <calculatedColumnFormula>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</calculatedColumnFormula>
+    <tableColumn id="3" name="Angle" dataDxfId="28">
+      <calculatedColumnFormula>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Radians" dataDxfId="25">
-      <calculatedColumnFormula>Table136[[#This Row],[Angle]]*RadiansInDegree</calculatedColumnFormula>
+    <tableColumn id="6" name="Radians" dataDxfId="27">
+      <calculatedColumnFormula>Table136810[[#This Row],[Angle]]*RadiansInDegree</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="x" dataDxfId="24">
-      <calculatedColumnFormula>Radius*COS(Table136[[#This Row],[Radians]])</calculatedColumnFormula>
+    <tableColumn id="4" name="x" dataDxfId="26">
+      <calculatedColumnFormula>Radius*COS(Table136810[[#This Row],[Radians]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="y" dataDxfId="23">
-      <calculatedColumnFormula>Radius*SIN(Table136[[#This Row],[Radians]])</calculatedColumnFormula>
+    <tableColumn id="5" name="y" dataDxfId="25">
+      <calculatedColumnFormula>Radius*SIN(Table136810[[#This Row],[Radians]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Name" dataDxfId="22"/>
-    <tableColumn id="2" name="LED Angle" dataDxfId="21">
-      <calculatedColumnFormula>Table136[[#This Row],[Angle]]*10</calculatedColumnFormula>
+    <tableColumn id="9" name="LED Name" dataDxfId="24"/>
+    <tableColumn id="2" name="LED Angle" dataDxfId="23">
+      <calculatedColumnFormula>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED X" dataDxfId="20">
-      <calculatedColumnFormula>Xo-Table136[[#This Row],[y]]</calculatedColumnFormula>
+    <tableColumn id="7" name="LED X" dataDxfId="22">
+      <calculatedColumnFormula>Xo-Table136810[[#This Row],[y]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="LED Y" dataDxfId="19">
-      <calculatedColumnFormula>Yo-Table136[[#This Row],[x]]</calculatedColumnFormula>
+    <tableColumn id="8" name="LED Y" dataDxfId="21">
+      <calculatedColumnFormula>Yo-Table136810[[#This Row],[x]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="LED SEP" dataDxfId="18">
-      <calculatedColumnFormula>SQRT(POWER((Table136[[#This Row],[LED X]]-I4),2) + POWER((Table136[[#This Row],[LED Y]]-J4),2)) - LEDSize</calculatedColumnFormula>
+    <tableColumn id="10" name="LED SEP" dataDxfId="20">
+      <calculatedColumnFormula>SQRT(POWER((Table136810[[#This Row],[LED X]]-I4),2) + POWER((Table136810[[#This Row],[LED Y]]-J4),2)) - LEDSize</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Column1" dataDxfId="15">
+      <calculatedColumnFormula>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1797,44 +2424,44 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="M3:N10" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16">
-  <autoFilter ref="M3:N10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table47911" displayName="Table47911" ref="N3:O12" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18">
+  <autoFilter ref="N3:O12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Contant" dataDxfId="15"/>
-    <tableColumn id="2" name="Value" dataDxfId="14"/>
+    <tableColumn id="1" name="Contant" dataDxfId="17"/>
+    <tableColumn id="2" name="Value" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1368" displayName="Table1368" ref="B2:K22" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1368" displayName="Table1368" ref="B2:K22" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="B2:K22"/>
   <tableColumns count="10">
     <tableColumn id="1" name="LED #"/>
-    <tableColumn id="3" name="Angle" dataDxfId="12">
+    <tableColumn id="3" name="Angle" dataDxfId="31">
       <calculatedColumnFormula>360/LEDCount * (Table1368[[#This Row],[LED '#]]-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Radians" dataDxfId="11">
+    <tableColumn id="6" name="Radians" dataDxfId="42">
       <calculatedColumnFormula>Table1368[[#This Row],[Angle]]*RadiansInDegree</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="x" dataDxfId="10">
+    <tableColumn id="4" name="x" dataDxfId="41">
       <calculatedColumnFormula>Radius*COS(Table1368[[#This Row],[Radians]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="y" dataDxfId="9">
+    <tableColumn id="5" name="y" dataDxfId="40">
       <calculatedColumnFormula>Radius*SIN(Table1368[[#This Row],[Radians]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="LED Name" dataDxfId="8"/>
-    <tableColumn id="2" name="LED Angle" dataDxfId="7">
-      <calculatedColumnFormula>Table1368[[#This Row],[Angle]]*10</calculatedColumnFormula>
+    <tableColumn id="9" name="LED Name" dataDxfId="39"/>
+    <tableColumn id="2" name="LED Angle" dataDxfId="30">
+      <calculatedColumnFormula>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="LED X" dataDxfId="6">
+    <tableColumn id="7" name="LED X" dataDxfId="38">
       <calculatedColumnFormula>Xo-Table1368[[#This Row],[y]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="LED Y" dataDxfId="5">
+    <tableColumn id="8" name="LED Y" dataDxfId="37">
       <calculatedColumnFormula>Yo-Table1368[[#This Row],[x]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="LED SEP" dataDxfId="4">
+    <tableColumn id="10" name="LED SEP" dataDxfId="36">
       <calculatedColumnFormula>SQRT(POWER((Table1368[[#This Row],[LED X]]-I4),2) + POWER((Table1368[[#This Row],[LED Y]]-J4),2)) - LEDSize</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1843,11 +2470,49 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table479" displayName="Table479" ref="M3:N10" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="M3:N10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table479" displayName="Table479" ref="M3:N12" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34">
+  <autoFilter ref="M3:N12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Contant" dataDxfId="1"/>
-    <tableColumn id="2" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" name="Contant" dataDxfId="33"/>
+    <tableColumn id="2" name="Value" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table13681012" displayName="Table13681012" ref="B2:L32" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="B2:L32"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="LED #"/>
+    <tableColumn id="3" name="Angle" dataDxfId="13">
+      <calculatedColumnFormula>360/LEDCount * (Table13681012[[#This Row],[LED '#]]-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Radians" dataDxfId="12">
+      <calculatedColumnFormula>Table13681012[[#This Row],[Angle]]*RadiansInDegree</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="x" dataDxfId="11">
+      <calculatedColumnFormula>Radius*COS(Table13681012[[#This Row],[Radians]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="y" dataDxfId="10">
+      <calculatedColumnFormula>Radius*SIN(Table13681012[[#This Row],[Radians]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" name="Orient" dataDxfId="8">
+      <calculatedColumnFormula>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="X2" dataDxfId="7">
+      <calculatedColumnFormula>Xo-Table13681012[[#This Row],[y]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="Y2" dataDxfId="6">
+      <calculatedColumnFormula>Yo-Table13681012[[#This Row],[x]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="SEP" dataDxfId="5">
+      <calculatedColumnFormula>SQRT(POWER((Table13681012[[#This Row],[X2]]-I4),2) + POWER((Table13681012[[#This Row],[Y2]]-J4),2)) - LEDSize</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" name="Python" dataDxfId="4">
+      <calculatedColumnFormula>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2140,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J22"/>
+  <dimension ref="B3:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,28 +2828,28 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2587,50 +3252,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>178</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>178</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
       <c r="G17" s="1">
         <f>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1">
         <f>G16-Table1[[#This Row],[Radius]]</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="I17" s="1">
         <f>Table1[[#This Row],[Radius]]*2</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1">
         <f>I16-Table1[[#This Row],[Diameter]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>178</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>178</v>
+      </c>
+      <c r="F18">
+        <v>89.5</v>
+      </c>
       <c r="G18" s="1">
         <f>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H18" s="1">
-        <f>G17-Table1[[#This Row],[Radius]]</f>
-        <v>0</v>
+        <f>G16-Table1[[#This Row],[Radius]]</f>
+        <v>-14.5</v>
       </c>
       <c r="I18" s="1">
         <f>Table1[[#This Row],[Radius]]*2</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1">
-        <f>I17-Table1[[#This Row],[Diameter]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.25">
+        <f>I16-Table1[[#This Row],[Diameter]]</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G19" s="1">
         <f>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</f>
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>G18-Table1[[#This Row],[Radius]]</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I19" s="1">
         <f>Table1[[#This Row],[Radius]]*2</f>
@@ -2638,35 +3333,50 @@
       </c>
       <c r="J19" s="1">
         <f>I18-Table1[[#This Row],[Diameter]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <v>178</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>178</v>
+      </c>
+      <c r="F20">
+        <v>43</v>
+      </c>
       <c r="G20" s="1">
         <f>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1">
         <f>G19-Table1[[#This Row],[Radius]]</f>
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="I20" s="1">
         <f>Table1[[#This Row],[Radius]]*2</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1">
         <f>I19-Table1[[#This Row],[Diameter]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.25">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <f>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</f>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>G20-Table1[[#This Row],[Radius]]</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1">
         <f>Table1[[#This Row],[Radius]]*2</f>
@@ -2674,10 +3384,10 @@
       </c>
       <c r="J21" s="1">
         <f>I20-Table1[[#This Row],[Diameter]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <f>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</f>
         <v>0</v>
@@ -2695,10 +3405,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f>SQRT(POWER(Table1[[#This Row],[PointOnCurveX]]-Table1[[#This Row],[CenterX]],2) + POWER(Table1[[#This Row],[PointOnCurveY]]-Table1[[#This Row],[CenterY]],2))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>G22-Table1[[#This Row],[Radius]]</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f>Table1[[#This Row],[Radius]]*2</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f>I22-Table1[[#This Row],[Diameter]]</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2708,7 +3437,7 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,41 +3473,65 @@
         <v>47</v>
       </c>
       <c r="C4">
-        <v>178.13</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>75.400000000000006</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>40</v>
       </c>
       <c r="F4">
         <f>Table14[[#This Row],[CenterX]]</f>
-        <v>178.13</v>
+        <v>178</v>
       </c>
       <c r="G4">
         <f>Table14[[#This Row],[CenterY]]+Table14[[#This Row],[Radius]]</f>
-        <v>115.4</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
       <c r="F5">
         <f>Table14[[#This Row],[CenterX]]</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="G5">
         <f>Table14[[#This Row],[CenterY]]+Table14[[#This Row],[Radius]]</f>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>178</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
       <c r="F6">
         <f>Table14[[#This Row],[CenterX]]</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="G6">
         <f>Table14[[#This Row],[CenterY]]+Table14[[#This Row],[Radius]]</f>
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -2803,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -2851,13 +3604,13 @@
       <c r="J2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -3661,10 +4414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R32"/>
+  <dimension ref="B2:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,16 +4427,18 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3711,1268 +4466,1434 @@
       <c r="J2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>37.5</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>35.5</v>
       </c>
       <c r="F3" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
         <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>0</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>900</v>
       </c>
       <c r="I3" s="4">
-        <f>Xo-Table136[[#This Row],[y]]</f>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
         <v>178</v>
       </c>
       <c r="J3" s="4">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>37.5</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>39.5</v>
       </c>
       <c r="K3" s="4">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I4),2) + POWER((Table136[[#This Row],[LED Y]]-J4),2)) - LEDSize</f>
-        <v>2.8396380926600839</v>
-      </c>
-      <c r="M3" s="8" t="s">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I4),2) + POWER((Table136810[[#This Row],[LED Y]]-J4),2)) - LEDSize</f>
+        <v>2.4215240610515307</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L1':[900, 178, 39.5], </v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" t="str">
+        <f>CONCATENATE("'",Table136810[[#This Row],[LED Name]],"':[",Table136810[[#This Row],[LED Angle]],", ",Table136810[[#This Row],[LED X]],", ",Table136810[[#This Row],[LED Y]],"], ")</f>
+        <v xml:space="preserve">'L1':[900, 178, 39.5], </v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>12</v>
       </c>
       <c r="D4">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>0.2094396</v>
       </c>
       <c r="E4" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>36.680534327681507</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>34.724239163538492</v>
       </c>
       <c r="F4" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>7.796691698135727</v>
-      </c>
-      <c r="G4" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>7.3808681409018222</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>120</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1020</v>
       </c>
       <c r="I4" s="4">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>170.20330830186427</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>170.61913185909819</v>
       </c>
       <c r="J4" s="4">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>38.319465672318493</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>40.275760836461508</v>
       </c>
       <c r="K4" s="4">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I5),2) + POWER((Table136[[#This Row],[LED Y]]-J5),2)) - LEDSize</f>
-        <v>2.8396380926600635</v>
-      </c>
-      <c r="M4" s="10" t="s">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I5),2) + POWER((Table136810[[#This Row],[LED Y]]-J5),2)) - LEDSize</f>
+        <v>2.4215240610515529</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L30':[1020, 170.619131859098, 40.2757608364615], </v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="11">
+      <c r="O4" s="11">
         <v>1.7453300000000001E-2</v>
       </c>
-      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>24</v>
       </c>
       <c r="D5">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>0.41887920000000001</v>
       </c>
       <c r="E5" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>34.257951923425146</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>32.430861154175801</v>
       </c>
       <c r="F5" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>15.252630265376904</v>
-      </c>
-      <c r="G5" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>14.439156651223469</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>240</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1140</v>
       </c>
       <c r="I5" s="4">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>162.74736973462311</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>163.56084334877653</v>
       </c>
       <c r="J5" s="4">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>40.742048076574854</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>42.569138845824199</v>
       </c>
       <c r="K5" s="4">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I6),2) + POWER((Table136[[#This Row],[LED Y]]-J6),2)) - LEDSize</f>
-        <v>2.8396380926600848</v>
-      </c>
-      <c r="M5" s="12" t="s">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I6),2) + POWER((Table136810[[#This Row],[LED Y]]-J6),2)) - LEDSize</f>
+        <v>2.4215240610515361</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L29':[1140, 163.560843348777, 42.5691388458242], </v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="13">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>36</v>
       </c>
       <c r="D6">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>0.62831880000000007</v>
       </c>
       <c r="E6" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>30.338131353558957</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>28.720097681369143</v>
       </c>
       <c r="F6" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>22.041955130482485</v>
-      </c>
-      <c r="G6" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>20.866384190190086</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>360</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1260</v>
       </c>
       <c r="I6" s="4">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>155.95804486951752</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>157.13361580980992</v>
       </c>
       <c r="J6" s="4">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>44.661868646441043</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>46.27990231863086</v>
       </c>
       <c r="K6" s="4">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I7),2) + POWER((Table136[[#This Row],[LED Y]]-J7),2)) - LEDSize</f>
-        <v>2.8396380926600795</v>
-      </c>
-      <c r="M6" s="12" t="s">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I7),2) + POWER((Table136810[[#This Row],[LED Y]]-J7),2)) - LEDSize</f>
+        <v>2.4215240610515538</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L28':[1260, 157.13361580981, 46.2799023186309], </v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="13">
-        <f>RingRadius-LEDSize/2</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="O6" s="13">
+        <f>RingRadius-LEDSize/2 - LEDSizeBuffer</f>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>48</v>
       </c>
       <c r="D7">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>0.83775840000000001</v>
       </c>
       <c r="E7" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>25.092387732677782</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>23.754127053601636</v>
       </c>
       <c r="F7" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>27.867939964643266</v>
-      </c>
-      <c r="G7" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>26.381649833195624</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>480</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1380</v>
       </c>
       <c r="I7" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>150.13206003535674</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>151.61835016680436</v>
       </c>
       <c r="J7" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>49.907612267322222</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>51.245872946398364</v>
       </c>
       <c r="K7" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I8),2) + POWER((Table136[[#This Row],[LED Y]]-J8),2)) - LEDSize</f>
-        <v>2.8396380926600884</v>
-      </c>
-      <c r="M7" s="12" t="s">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I8),2) + POWER((Table136810[[#This Row],[LED Y]]-J8),2)) - LEDSize</f>
+        <v>2.4215240610515281</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L27':[1380, 151.618350166804, 51.2458729463984], </v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="13">
+      <c r="O7" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>60</v>
       </c>
       <c r="D8">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>1.0471980000000001</v>
       </c>
       <c r="E8" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>18.749985424680073</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>17.749986202030467</v>
       </c>
       <c r="F8" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>32.475961056976971</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>30.743909800604865</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>600</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1500</v>
       </c>
       <c r="I8" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>145.52403894302302</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>147.25609019939515</v>
       </c>
       <c r="J8" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>56.250014575319923</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>57.25001379796953</v>
       </c>
       <c r="K8" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I9),2) + POWER((Table136[[#This Row],[LED Y]]-J9),2)) - LEDSize</f>
-        <v>2.8396380926600822</v>
-      </c>
-      <c r="M8" s="12" t="s">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I9),2) + POWER((Table136810[[#This Row],[LED Y]]-J9),2)) - LEDSize</f>
+        <v>2.4215240610515538</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L26':[1500, 147.256090199395, 57.2500137979695], </v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>72</v>
       </c>
       <c r="D9">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>1.2566376000000001</v>
       </c>
       <c r="E9" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>11.588118081375832</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>10.970085117035788</v>
       </c>
       <c r="F9" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>35.664625602017622</v>
-      </c>
-      <c r="G9" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>33.762512236576683</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>720</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1620</v>
       </c>
       <c r="I9" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>142.33537439798238</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>144.2374877634233</v>
       </c>
       <c r="J9" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>63.411881918624168</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>64.029914882964206</v>
       </c>
       <c r="K9" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I10),2) + POWER((Table136[[#This Row],[LED Y]]-J10),2)) - LEDSize</f>
-        <v>2.8396380926600768</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="14">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I10),2) + POWER((Table136810[[#This Row],[LED Y]]-J10),2)) - LEDSize</f>
+        <v>2.4215240610515423</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L25':[1620, 144.237487763423, 64.0299148829642], </v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>84</v>
       </c>
       <c r="D10">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>1.4660772000000002</v>
       </c>
       <c r="E10" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>3.9197939394336858</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>3.7107382626638894</v>
       </c>
       <c r="F10" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>37.294573539221211</v>
-      </c>
-      <c r="G10" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>35.305529617129416</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>840</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1740</v>
       </c>
       <c r="I10" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>140.7054264607788</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>142.69447038287058</v>
       </c>
       <c r="J10" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>71.080206060566312</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>71.289261737336105</v>
       </c>
       <c r="K10" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I11),2) + POWER((Table136[[#This Row],[LED Y]]-J11),2)) - LEDSize</f>
-        <v>2.8396380926600813</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I11),2) + POWER((Table136810[[#This Row],[LED Y]]-J11),2)) - LEDSize</f>
+        <v>2.4215240610515467</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L24':[1740, 142.694470382871, 71.2892617373361], </v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="13">
+        <v>90</v>
+      </c>
+      <c r="Q10">
+        <v>90</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>96</v>
       </c>
       <c r="D11">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>1.6755168</v>
       </c>
       <c r="E11" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-3.9198441532246111</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-3.7107857983859653</v>
       </c>
       <c r="F11" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>37.294568261536838</v>
-      </c>
-      <c r="G11" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>35.305524620921538</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>960</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1860</v>
       </c>
       <c r="I11" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>140.70543173846318</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>142.69447537907845</v>
       </c>
       <c r="J11" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>78.919844153224616</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>78.71078579838597</v>
       </c>
       <c r="K11" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I12),2) + POWER((Table136[[#This Row],[LED Y]]-J12),2)) - LEDSize</f>
-        <v>2.8396380926600706</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I12),2) + POWER((Table136810[[#This Row],[LED Y]]-J12),2)) - LEDSize</f>
+        <v>2.4215240610515325</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L23':[1860, 142.694475379078, 78.710785798386], </v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>108</v>
       </c>
       <c r="D12">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>1.8849564000000001</v>
       </c>
       <c r="E12" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-11.588166100581267</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-10.970130575216933</v>
       </c>
       <c r="F12" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>35.664609999624822</v>
-      </c>
-      <c r="G12" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>33.762497466311501</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1080</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>1980</v>
       </c>
       <c r="I12" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>142.33539000037518</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>144.23750253368848</v>
       </c>
       <c r="J12" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>86.588166100581262</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>85.970130575216928</v>
       </c>
       <c r="K12" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I13),2) + POWER((Table136[[#This Row],[LED Y]]-J13),2)) - LEDSize</f>
-        <v>2.8396380926600813</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I13),2) + POWER((Table136810[[#This Row],[LED Y]]-J13),2)) - LEDSize</f>
+        <v>2.4215240610515645</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L22':[1980, 144.237502533688, 85.9701305752169], </v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>120</v>
       </c>
       <c r="D13">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>2.0943960000000001</v>
       </c>
       <c r="E13" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-18.750029150628524</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-17.750027595928337</v>
       </c>
       <c r="F13" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>32.475935811775777</v>
-      </c>
-      <c r="G13" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>30.743885901814405</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1200</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2100</v>
       </c>
       <c r="I13" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>145.52406418822423</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>147.25611409818561</v>
       </c>
       <c r="J13" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>93.750029150628521</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>92.750027595928344</v>
       </c>
       <c r="K13" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I14),2) + POWER((Table136[[#This Row],[LED Y]]-J14),2)) - LEDSize</f>
-        <v>2.8396380926600866</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I14),2) + POWER((Table136810[[#This Row],[LED Y]]-J14),2)) - LEDSize</f>
+        <v>2.4215240610515281</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L21':[2100, 147.256114098186, 92.7500275959283], </v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>132</v>
       </c>
       <c r="D14">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>2.3038356000000002</v>
       </c>
       <c r="E14" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-25.092425254333858</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-23.754162574102718</v>
       </c>
       <c r="F14" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>27.867906179971047</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>26.381617850372592</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1320</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2220</v>
       </c>
       <c r="I14" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>150.13209382002896</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>151.61838214962739</v>
       </c>
       <c r="J14" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>100.09242525433386</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>98.754162574102722</v>
       </c>
       <c r="K14" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I15),2) + POWER((Table136[[#This Row],[LED Y]]-J15),2)) - LEDSize</f>
-        <v>2.8396380926600875</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I15),2) + POWER((Table136810[[#This Row],[LED Y]]-J15),2)) - LEDSize</f>
+        <v>2.4215240610515547</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L20':[2220, 151.618382149627, 98.7541625741027], </v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>144</v>
       </c>
       <c r="D15">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>2.5132752000000003</v>
       </c>
       <c r="E15" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-30.33816103104483</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-28.72012577605577</v>
       </c>
       <c r="F15" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>22.041914282892787</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>20.866345521138506</v>
+      </c>
+      <c r="G15" s="23" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1440</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2340</v>
       </c>
       <c r="I15" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>155.95808571710722</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>157.1336544788615</v>
       </c>
       <c r="J15" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>105.33816103104483</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>103.72012577605577</v>
       </c>
       <c r="K15" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I16),2) + POWER((Table136[[#This Row],[LED Y]]-J16),2)) - LEDSize</f>
-        <v>2.8396380926600679</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I16),2) + POWER((Table136810[[#This Row],[LED Y]]-J16),2)) - LEDSize</f>
+        <v>2.421524061051529</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L19':[2340, 157.133654478862, 103.720125776056], </v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>156</v>
       </c>
       <c r="D16">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>2.7227148000000003</v>
       </c>
       <c r="E16" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-34.257972459691167</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-32.430880595174301</v>
       </c>
       <c r="F16" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>15.252584140106936</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>14.439112985967899</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1560</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2460</v>
       </c>
       <c r="I16" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>162.74741585989307</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>163.56088701403209</v>
       </c>
       <c r="J16" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>109.25797245969116</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>107.4308805951743</v>
       </c>
       <c r="K16" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I17),2) + POWER((Table136[[#This Row],[LED Y]]-J17),2)) - LEDSize</f>
-        <v>2.8396380926600724</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I17),2) + POWER((Table136810[[#This Row],[LED Y]]-J17),2)) - LEDSize</f>
+        <v>2.42152406105156</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L18':[2460, 163.560887014032, 107.430880595174], </v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>168</v>
       </c>
       <c r="D17">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>2.9321544000000004</v>
       </c>
       <c r="E17" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-36.680544825193543</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-34.724249101183219</v>
       </c>
       <c r="F17" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>7.7966423110828371</v>
-      </c>
-      <c r="G17" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>7.3808213878250859</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>31</v>
       </c>
       <c r="H17" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1680</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2580</v>
       </c>
       <c r="I17" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>170.20335768891715</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>170.61917861217492</v>
       </c>
       <c r="J17" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>111.68054482519355</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>109.72424910118322</v>
       </c>
       <c r="K17" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I18),2) + POWER((Table136[[#This Row],[LED Y]]-J18),2)) - LEDSize</f>
-        <v>2.839638092660083</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I18),2) + POWER((Table136810[[#This Row],[LED Y]]-J18),2)) - LEDSize</f>
+        <v>2.4215240610515423</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L17':[2580, 170.619178612175, 109.724249101183], </v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>180</v>
       </c>
       <c r="D18">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>3.1415940000000004</v>
       </c>
       <c r="E18" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-37.499999999966008</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-35.499999999967827</v>
       </c>
       <c r="F18" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-5.0490382770105399E-5</v>
-      </c>
-      <c r="G18" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-4.7797562355699777E-5</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1800</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2700</v>
       </c>
       <c r="I18" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>178.00005049038276</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>178.00004779756236</v>
       </c>
       <c r="J18" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>112.49999999996601</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>110.49999999996783</v>
       </c>
       <c r="K18" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I19),2) + POWER((Table136[[#This Row],[LED Y]]-J19),2)) - LEDSize</f>
-        <v>2.8396380926600635</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I19),2) + POWER((Table136810[[#This Row],[LED Y]]-J19),2)) - LEDSize</f>
+        <v>2.4215240610515156</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L16':[2700, 178.000047797562, 110.499999999968], </v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>192</v>
       </c>
       <c r="D19">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>3.3510336000000001</v>
       </c>
       <c r="E19" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-36.680523830102977</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-34.724229225830818</v>
       </c>
       <c r="F19" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-7.7967410851744701</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-7.3809148939651656</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>1920</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2820</v>
       </c>
       <c r="I19" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>185.79674108517446</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>185.38091489396515</v>
       </c>
       <c r="J19" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>111.68052383010297</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>109.72422922583081</v>
       </c>
       <c r="K19" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I20),2) + POWER((Table136[[#This Row],[LED Y]]-J20),2)) - LEDSize</f>
-        <v>2.8396380926601017</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I20),2) + POWER((Table136810[[#This Row],[LED Y]]-J20),2)) - LEDSize</f>
+        <v>2.4215240610515494</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L15':[2820, 185.380914893965, 109.724229225831], </v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>204</v>
       </c>
       <c r="D20">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>3.5604732000000001</v>
       </c>
       <c r="E20" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-34.257931387097024</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-32.430841713118511</v>
       </c>
       <c r="F20" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-15.252676390619214</v>
-      </c>
-      <c r="G20" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-14.439200316452856</v>
+      </c>
+      <c r="G20" s="23" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2040</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2940</v>
       </c>
       <c r="I20" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>193.25267639061923</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>192.43920031645285</v>
       </c>
       <c r="J20" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>109.25793138709702</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>107.43084171311851</v>
       </c>
       <c r="K20" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I21),2) + POWER((Table136[[#This Row],[LED Y]]-J21),2)) - LEDSize</f>
-        <v>2.8396380926600715</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I21),2) + POWER((Table136810[[#This Row],[LED Y]]-J21),2)) - LEDSize</f>
+        <v>2.4215240610515361</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L14':[2940, 192.439200316453, 107.430841713119], </v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>216</v>
       </c>
       <c r="D21">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>3.7699128000000002</v>
       </c>
       <c r="E21" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-30.338101676018088</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-28.720069586630459</v>
       </c>
       <c r="F21" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-22.041995978032215</v>
-      </c>
-      <c r="G21" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-20.866422859203833</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>35</v>
       </c>
       <c r="H21" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2160</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3060</v>
       </c>
       <c r="I21" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>200.04199597803222</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>198.86642285920382</v>
       </c>
       <c r="J21" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>105.33810167601808</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>103.72006958663046</v>
       </c>
       <c r="K21" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I22),2) + POWER((Table136[[#This Row],[LED Y]]-J22),2)) - LEDSize</f>
-        <v>2.8396380926600751</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I22),2) + POWER((Table136810[[#This Row],[LED Y]]-J22),2)) - LEDSize</f>
+        <v>2.4215240610515529</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L13':[3060, 198.866422859204, 103.72006958663], </v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>228</v>
       </c>
       <c r="D22">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>3.9793524000000002</v>
       </c>
       <c r="E22" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-25.092350210976225</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-23.754091533057494</v>
       </c>
       <c r="F22" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-27.867973749264969</v>
-      </c>
-      <c r="G22" s="6" t="s">
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-26.38168181597084</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H22" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2280</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3180</v>
       </c>
       <c r="I22" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>205.86797374926496</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>204.38168181597084</v>
       </c>
       <c r="J22" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>100.09235021097622</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>98.75409153305749</v>
       </c>
       <c r="K22" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I23),2) + POWER((Table136[[#This Row],[LED Y]]-J23),2)) - LEDSize</f>
-        <v>2.8396380926600795</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I23),2) + POWER((Table136810[[#This Row],[LED Y]]-J23),2)) - LEDSize</f>
+        <v>2.4215240610515485</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L12':[3180, 204.381681815971, 98.7540915330575], </v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C23" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>240</v>
       </c>
-      <c r="D23">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D23" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>4.1887920000000003</v>
       </c>
       <c r="E23" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-18.749941698697629</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-17.749944808100423</v>
       </c>
       <c r="F23" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-32.475986302119296</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-30.743933699339596</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2400</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3300</v>
       </c>
       <c r="I23" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>210.47598630211928</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>208.74393369933961</v>
       </c>
       <c r="J23" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>93.749941698697626</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>92.749944808100423</v>
       </c>
       <c r="K23" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I24),2) + POWER((Table136[[#This Row],[LED Y]]-J24),2)) - LEDSize</f>
-        <v>2.839638092660107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I24),2) + POWER((Table136810[[#This Row],[LED Y]]-J24),2)) - LEDSize</f>
+        <v>2.4215240610515627</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L11':[3300, 208.74393369934, 92.7499448081004], </v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C24" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>252</v>
       </c>
-      <c r="D24">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D24" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>4.3982316000000008</v>
       </c>
       <c r="E24" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-11.588070062149372</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-10.97003965883474</v>
       </c>
       <c r="F24" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-35.664641204345763</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-33.762527006780651</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2520</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3420</v>
       </c>
       <c r="I24" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>213.66464120434577</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>211.76252700678066</v>
       </c>
       <c r="J24" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>86.58807006214937</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>85.970039658834736</v>
       </c>
       <c r="K24" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I25),2) + POWER((Table136[[#This Row],[LED Y]]-J25),2)) - LEDSize</f>
-        <v>2.8396380926600573</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I25),2) + POWER((Table136810[[#This Row],[LED Y]]-J25),2)) - LEDSize</f>
+        <v>2.421524061051521</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L10':[3420, 211.762527006781, 85.9700396588347], </v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C25" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>264</v>
       </c>
-      <c r="D25">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D25" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>4.6076712000000004</v>
       </c>
       <c r="E25" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>-3.9197437256356551</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>-3.7106907269350868</v>
       </c>
       <c r="F25" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-37.294578816837976</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-35.305534613273281</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2640</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3540</v>
       </c>
       <c r="I25" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>215.29457881683797</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>213.30553461327327</v>
       </c>
       <c r="J25" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>78.919743725635655</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>78.710690726935084</v>
       </c>
       <c r="K25" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I26),2) + POWER((Table136[[#This Row],[LED Y]]-J26),2)) - LEDSize</f>
-        <v>2.8396380926600679</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I26),2) + POWER((Table136810[[#This Row],[LED Y]]-J26),2)) - LEDSize</f>
+        <v>2.421524061051529</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L9':[3540, 213.305534613273, 78.7106907269351], </v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C26" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>276</v>
       </c>
-      <c r="D26">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D26" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>4.8171108</v>
       </c>
       <c r="E26" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>3.9198943670084221</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>3.7108333341013062</v>
       </c>
       <c r="F26" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-37.294562983784857</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-35.305519624649662</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2760</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3660</v>
       </c>
       <c r="I26" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>215.29456298378486</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>213.30551962464966</v>
       </c>
       <c r="J26" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>71.080105632991575</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>71.289166665898691</v>
       </c>
       <c r="K26" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I27),2) + POWER((Table136[[#This Row],[LED Y]]-J27),2)) - LEDSize</f>
-        <v>2.8396380926600955</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I27),2) + POWER((Table136810[[#This Row],[LED Y]]-J27),2)) - LEDSize</f>
+        <v>2.4215240610515538</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L8':[3660, 213.30551962465, 71.2891666658987], </v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C27" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>288</v>
       </c>
-      <c r="D27">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D27" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>5.0265504000000005</v>
       </c>
       <c r="E27" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>11.588214119765702</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>10.970176033378198</v>
       </c>
       <c r="F27" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-35.664594397167377</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-33.762482695985121</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H27" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>2880</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3780</v>
       </c>
       <c r="I27" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>213.66459439716738</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>211.76248269598511</v>
       </c>
       <c r="J27" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>63.411785880234298</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>64.029823966621805</v>
       </c>
       <c r="K27" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I28),2) + POWER((Table136[[#This Row],[LED Y]]-J28),2)) - LEDSize</f>
-        <v>2.8396380926600617</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I28),2) + POWER((Table136810[[#This Row],[LED Y]]-J28),2)) - LEDSize</f>
+        <v>2.421524061051529</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L7':[3780, 211.762482695985, 64.0298239666218], </v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C28" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>300</v>
       </c>
-      <c r="D28">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D28" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>5.2359900000000001</v>
       </c>
       <c r="E28" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>18.75007287654298</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>17.75006898979402</v>
       </c>
       <c r="F28" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-32.475910566515715</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-30.743862002968211</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>3000</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3900</v>
       </c>
       <c r="I28" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>210.47591056651572</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>208.7438620029682</v>
       </c>
       <c r="J28" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>56.24992712345702</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>57.249931010205984</v>
       </c>
       <c r="K28" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I29),2) + POWER((Table136[[#This Row],[LED Y]]-J29),2)) - LEDSize</f>
-        <v>2.8396380926601061</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I29),2) + POWER((Table136810[[#This Row],[LED Y]]-J29),2)) - LEDSize</f>
+        <v>2.4215240610515654</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L6':[3900, 208.743862002968, 57.249931010206], </v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C29" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>312</v>
       </c>
-      <c r="D29">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D29" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>5.4454296000000006</v>
       </c>
       <c r="E29" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>25.092462775944448</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>23.754198094560742</v>
       </c>
       <c r="F29" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-27.867872395248305</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-26.381585867501727</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>3120</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4020</v>
       </c>
       <c r="I29" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>205.8678723952483</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>204.38158586750171</v>
       </c>
       <c r="J29" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>49.907537224055552</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>51.245801905439258</v>
       </c>
       <c r="K29" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I30),2) + POWER((Table136[[#This Row],[LED Y]]-J30),2)) - LEDSize</f>
-        <v>2.83963809266006</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I30),2) + POWER((Table136810[[#This Row],[LED Y]]-J30),2)) - LEDSize</f>
+        <v>2.4215240610515085</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L5':[4020, 204.381585867502, 51.2458019054393], </v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C30" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>324</v>
       </c>
-      <c r="D30">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D30" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>5.6548692000000003</v>
       </c>
       <c r="E30" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>30.338190708475697</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>28.720153870690325</v>
       </c>
       <c r="F30" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-22.041873435263142</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-20.86630685204911</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H30" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>3240</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4140</v>
       </c>
       <c r="I30" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>200.04187343526314</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>198.86630685204912</v>
       </c>
       <c r="J30" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>44.661809291524307</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>46.279846129309675</v>
       </c>
       <c r="K30" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I31),2) + POWER((Table136[[#This Row],[LED Y]]-J31),2)) - LEDSize</f>
-        <v>2.8396380926600955</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I31),2) + POWER((Table136810[[#This Row],[LED Y]]-J31),2)) - LEDSize</f>
+        <v>2.4215240610515734</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L4':[4140, 198.866306852049, 46.2798461293097], </v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>29</v>
       </c>
-      <c r="C31">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C31" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>336</v>
       </c>
-      <c r="D31">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D31" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>5.8643088000000008</v>
       </c>
       <c r="E31" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>34.257992995895087</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>32.430900036114011</v>
       </c>
       <c r="F31" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-15.252538014809312</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-14.43906932068615</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H31" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>3360</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4260</v>
       </c>
       <c r="I31" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>193.25253801480932</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>192.43906932068614</v>
       </c>
       <c r="J31" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>40.742007004104913</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>42.569099963885989</v>
       </c>
       <c r="K31" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I32),2) + POWER((Table136[[#This Row],[LED Y]]-J32),2)) - LEDSize</f>
-        <v>2.83963809266006</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I32),2) + POWER((Table136810[[#This Row],[LED Y]]-J32),2)) - LEDSize</f>
+        <v>2.4215240610515192</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L3':[4260, 192.439069320686, 42.569099963886], </v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32">
-        <f>360/LEDCount * (Table136[[#This Row],[LED '#]]-1)</f>
+      <c r="C32" s="22">
+        <f>360/LEDCount * (Table136810[[#This Row],[LED '#]]-1)</f>
         <v>348</v>
       </c>
-      <c r="D32">
-        <f>Table136[[#This Row],[Angle]]*RadiansInDegree</f>
+      <c r="D32" s="22">
+        <f>Table136810[[#This Row],[Angle]]*RadiansInDegree</f>
         <v>6.0737484000000004</v>
       </c>
       <c r="E32" s="2">
-        <f>Radius*COS(Table136[[#This Row],[Radians]])</f>
-        <v>36.680555322639087</v>
+        <f>Radius*COS(Table136810[[#This Row],[Radians]])</f>
+        <v>34.724259038764998</v>
       </c>
       <c r="F32" s="2">
-        <f>Radius*SIN(Table136[[#This Row],[Radians]])</f>
-        <v>-7.7965929240158287</v>
+        <f>Radius*SIN(Table136810[[#This Row],[Radians]])</f>
+        <v>-7.3807746347349843</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="5">
-        <f>Table136[[#This Row],[Angle]]*10</f>
-        <v>3480</v>
+        <f>(Table136810[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4380</v>
       </c>
       <c r="I32" s="2">
-        <f>Xo-Table136[[#This Row],[y]]</f>
-        <v>185.79659292401584</v>
+        <f>Xo-Table136810[[#This Row],[y]]</f>
+        <v>185.38077463473499</v>
       </c>
       <c r="J32" s="2">
-        <f>Yo-Table136[[#This Row],[x]]</f>
-        <v>38.319444677360913</v>
+        <f>Yo-Table136810[[#This Row],[x]]</f>
+        <v>40.275740961235002</v>
       </c>
       <c r="K32" s="2">
-        <f>SQRT(POWER((Table136[[#This Row],[LED X]]-I33),2) + POWER((Table136[[#This Row],[LED Y]]-J33),2)) - LEDSize</f>
-        <v>184.70702091001741</v>
+        <f>SQRT(POWER((Table136810[[#This Row],[LED X]]-I33),2) + POWER((Table136810[[#This Row],[LED Y]]-J33),2)) - LEDSize</f>
+        <v>184.70547412805701</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f>CONCATENATE("'",Table136810[LED Name],"':[",Table136810[LED Angle],", ",Table136810[LED X],", ",Table136810[LED Y],"], ")</f>
+        <v xml:space="preserve">'L2':[4380, 185.380774634735, 40.275740961235], </v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4989,7 +5910,7 @@
   <dimension ref="B2:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5003,8 +5924,8 @@
     <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5036,13 +5957,13 @@
       <c r="J2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -5058,7 +5979,7 @@
       </c>
       <c r="E3" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>22.5</v>
+        <v>16.25</v>
       </c>
       <c r="F3" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
@@ -5068,7 +5989,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -5077,17 +5998,23 @@
       </c>
       <c r="J3" s="4">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>52.5</v>
+        <v>58.75</v>
       </c>
       <c r="K3" s="4">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I4),2) + POWER((Table1368[[#This Row],[LED Y]]-J4),2)) - LEDSize</f>
-        <v>2.0395539189361029</v>
+        <v>4.0841222747871972</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -5104,30 +6031,30 @@
       </c>
       <c r="E4" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>21.398770680497581</v>
+        <v>15.454667713692698</v>
       </c>
       <c r="F4" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>6.9528852545887068</v>
+        <v>5.0215282394251775</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>180</v>
       </c>
       <c r="I4" s="4">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>171.04711474541131</v>
+        <v>172.97847176057482</v>
       </c>
       <c r="J4" s="4">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>53.601229319502423</v>
+        <v>59.5453322863073</v>
       </c>
       <c r="K4" s="4">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I5),2) + POWER((Table1368[[#This Row],[LED Y]]-J5),2)) - LEDSize</f>
-        <v>2.0395539189361198</v>
+        <v>4.0841222747871848</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>10</v>
@@ -5152,35 +6079,38 @@
       </c>
       <c r="E5" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>18.202878812135374</v>
+        <v>13.146523586542214</v>
       </c>
       <c r="F5" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>13.225173078289492</v>
+        <v>9.5515138898757446</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>360</v>
       </c>
       <c r="I5" s="4">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>164.77482692171051</v>
+        <v>168.44848611012426</v>
       </c>
       <c r="J5" s="4">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>56.797121187864626</v>
+        <v>61.853476413457784</v>
       </c>
       <c r="K5" s="4">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I6),2) + POWER((Table1368[[#This Row],[LED Y]]-J6),2)) - LEDSize</f>
-        <v>2.0395539189361225</v>
+        <v>4.0841222747872008</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>58</v>
       </c>
       <c r="N5" s="13">
+        <v>16.75</v>
+      </c>
+      <c r="P5">
         <v>25</v>
       </c>
     </row>
@@ -5198,37 +6128,37 @@
       </c>
       <c r="E6" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>13.225160824015578</v>
+        <v>9.5515050395668073</v>
       </c>
       <c r="F6" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>18.202887715385259</v>
+        <v>13.14653001666713</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>540</v>
       </c>
       <c r="I6" s="4">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>159.79711228461474</v>
+        <v>164.85346998333287</v>
       </c>
       <c r="J6" s="4">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>61.774839175984425</v>
+        <v>65.448494960433194</v>
       </c>
       <c r="K6" s="4">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I7),2) + POWER((Table1368[[#This Row],[LED Y]]-J7),2)) - LEDSize</f>
-        <v>2.0395539189361118</v>
+        <v>4.0841222747872017</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="N6" s="13">
-        <f>RingRadius-LEDSize/2</f>
-        <v>22.5</v>
+        <f>RingRadius-LEDSize/2 - LEDSizeBuffer</f>
+        <v>16.25</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
@@ -5245,30 +6175,30 @@
       </c>
       <c r="E7" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>6.9528708488254996</v>
+        <v>5.0215178352628609</v>
       </c>
       <c r="F7" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>21.398775361210571</v>
+        <v>15.454671094207635</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>720</v>
       </c>
       <c r="I7" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>156.60122463878943</v>
+        <v>162.54532890579236</v>
       </c>
       <c r="J7" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>68.047129151174502</v>
+        <v>69.978482164737144</v>
       </c>
       <c r="K7" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I8),2) + POWER((Table1368[[#This Row],[LED Y]]-J8),2)) - LEDSize</f>
-        <v>2.0395539189361234</v>
+        <v>4.0841222747871893</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>11</v>
@@ -5291,36 +6221,42 @@
       </c>
       <c r="E8" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-1.5147114831035052E-5</v>
+        <v>-1.0939582933525315E-5</v>
       </c>
       <c r="F8" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>22.499999999994902</v>
+        <v>16.249999999996319</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>900</v>
       </c>
       <c r="I8" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>155.50000000000509</v>
+        <v>161.75000000000369</v>
       </c>
       <c r="J8" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>75.000015147114837</v>
+        <v>75.000010939582936</v>
       </c>
       <c r="K8" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I9),2) + POWER((Table1368[[#This Row],[LED Y]]-J9),2)) - LEDSize</f>
-        <v>2.03955391893611</v>
+        <v>4.0841222747871875</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>57</v>
       </c>
       <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -5337,36 +6273,42 @@
       </c>
       <c r="E9" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-6.9528996603487601</v>
+        <v>-5.0215386435852158</v>
       </c>
       <c r="F9" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>21.398765999774895</v>
+        <v>15.454664333170758</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>1080</v>
       </c>
       <c r="I9" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>156.60123400022511</v>
+        <v>162.54533566682923</v>
       </c>
       <c r="J9" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>81.952899660348763</v>
+        <v>80.021538643585217</v>
       </c>
       <c r="K9" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I10),2) + POWER((Table1368[[#This Row],[LED Y]]-J10),2)) - LEDSize</f>
-        <v>2.0395539189361225</v>
+        <v>4.0841222747872088</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="14">
-        <v>178</v>
+        <v>70</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -5383,36 +6325,42 @@
       </c>
       <c r="E10" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-13.225185332557412</v>
+        <v>-9.5515227401803529</v>
       </c>
       <c r="F10" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>18.202869908877233</v>
+        <v>13.146517156411335</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>1260</v>
       </c>
       <c r="I10" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>159.79713009112277</v>
+        <v>164.85348284358867</v>
       </c>
       <c r="J10" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>88.225185332557416</v>
+        <v>84.55152274018036</v>
       </c>
       <c r="K10" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I11),2) + POWER((Table1368[[#This Row],[LED Y]]-J11),2)) - LEDSize</f>
-        <v>2.0395539189361118</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" s="16">
-        <v>75</v>
+        <v>4.0841222747871733</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>90</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
@@ -5429,30 +6377,36 @@
       </c>
       <c r="E11" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-18.202896618626898</v>
+        <v>-13.146536446786092</v>
       </c>
       <c r="F11" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>13.225148569735673</v>
+        <v>9.551496189253541</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>1440</v>
       </c>
       <c r="I11" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>164.77485143026433</v>
+        <v>168.44850381074644</v>
       </c>
       <c r="J11" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>93.202896618626895</v>
+        <v>88.146536446786087</v>
       </c>
       <c r="K11" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I12),2) + POWER((Table1368[[#This Row],[LED Y]]-J12),2)) - LEDSize</f>
-        <v>2.0395539189361065</v>
+        <v>4.084122274787223</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="14">
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
@@ -5469,30 +6423,36 @@
       </c>
       <c r="E12" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-21.398780041913863</v>
+        <v>-15.454674474715567</v>
       </c>
       <c r="F12" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>6.9528564430591446</v>
+        <v>5.0215074310982715</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>1620</v>
       </c>
       <c r="I12" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>171.04714355694085</v>
+        <v>172.97849256890174</v>
       </c>
       <c r="J12" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>96.398780041913867</v>
+        <v>90.454674474715574</v>
       </c>
       <c r="K12" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I13),2) + POWER((Table1368[[#This Row],[LED Y]]-J13),2)) - LEDSize</f>
-        <v>2.0395539189361358</v>
+        <v>4.0841222747871893</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="16">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -5509,30 +6469,30 @@
       </c>
       <c r="E13" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-22.499999999979607</v>
+        <v>-16.24999999998527</v>
       </c>
       <c r="F13" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-3.029422966206324E-5</v>
+        <v>-2.1879165867045672E-5</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>1800</v>
       </c>
       <c r="I13" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>178.00003029422967</v>
+        <v>178.00002187916587</v>
       </c>
       <c r="J13" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>97.499999999979607</v>
+        <v>91.249999999985278</v>
       </c>
       <c r="K13" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I14),2) + POWER((Table1368[[#This Row],[LED Y]]-J14),2)) - LEDSize</f>
-        <v>2.0395539189361109</v>
+        <v>4.0841222747871866</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -5549,30 +6509,30 @@
       </c>
       <c r="E14" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-21.39876131904251</v>
+        <v>-15.454660952641813</v>
       </c>
       <c r="F14" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-6.9529140661056665</v>
+        <v>-5.0215490477429814</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>1980</v>
       </c>
       <c r="I14" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>184.95291406610568</v>
+        <v>183.02154904774298</v>
       </c>
       <c r="J14" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>96.398761319042507</v>
+        <v>90.454660952641817</v>
       </c>
       <c r="K14" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I15),2) + POWER((Table1368[[#This Row],[LED Y]]-J15),2)) - LEDSize</f>
-        <v>2.0395539189360887</v>
+        <v>4.0841222747872044</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -5589,30 +6549,30 @@
       </c>
       <c r="E15" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-18.202861005610853</v>
+        <v>-13.146510726274505</v>
       </c>
       <c r="F15" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-13.225197586819331</v>
+        <v>-9.5515315904806268</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>2160</v>
       </c>
       <c r="I15" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>191.22519758681932</v>
+        <v>187.55153159048064</v>
       </c>
       <c r="J15" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>93.202861005610856</v>
+        <v>88.146510726274499</v>
       </c>
       <c r="K15" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I16),2) + POWER((Table1368[[#This Row],[LED Y]]-J16),2)) - LEDSize</f>
-        <v>2.0395539189361322</v>
+        <v>4.084122274787199</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -5629,30 +6589,30 @@
       </c>
       <c r="E16" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-13.225136315449772</v>
+        <v>-9.5514873389359458</v>
       </c>
       <c r="F16" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-18.202905521860284</v>
+        <v>-13.146542876899096</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>2340</v>
       </c>
       <c r="I16" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>196.20290552186029</v>
+        <v>191.1465428768991</v>
       </c>
       <c r="J16" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>88.225136315449774</v>
+        <v>84.551487338935942</v>
       </c>
       <c r="K16" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I17),2) + POWER((Table1368[[#This Row],[LED Y]]-J17),2)) - LEDSize</f>
-        <v>2.0395539189361136</v>
+        <v>4.084122274787183</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -5669,30 +6629,30 @@
       </c>
       <c r="E17" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>-6.9528420372896234</v>
+        <v>-5.021497026931395</v>
       </c>
       <c r="F17" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-21.398784722607456</v>
+        <v>-15.454677855216497</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>2520</v>
       </c>
       <c r="I17" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>199.39878472260745</v>
+        <v>193.45467785521649</v>
       </c>
       <c r="J17" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>81.952842037289628</v>
+        <v>80.021497026931399</v>
       </c>
       <c r="K17" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I18),2) + POWER((Table1368[[#This Row],[LED Y]]-J18),2)) - LEDSize</f>
-        <v>2.0395539189361092</v>
+        <v>4.0841222747871893</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -5709,30 +6669,30 @@
       </c>
       <c r="E18" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>4.5441344483085687E-5</v>
+        <v>3.281874879333966E-5</v>
       </c>
       <c r="F18" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-22.499999999954113</v>
+        <v>-16.24999999996686</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>2700</v>
       </c>
       <c r="I18" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>200.49999999995413</v>
+        <v>194.24999999996686</v>
       </c>
       <c r="J18" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>74.999954558655517</v>
+        <v>74.999967181251208</v>
       </c>
       <c r="K18" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I19),2) + POWER((Table1368[[#This Row],[LED Y]]-J19),2)) - LEDSize</f>
-        <v>2.0395539189361251</v>
+        <v>4.0841222747871964</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -5749,30 +6709,30 @@
       </c>
       <c r="E19" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>6.9529284718594218</v>
+        <v>5.0215594518984714</v>
       </c>
       <c r="F19" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-21.398756638300426</v>
+        <v>-15.454657572105864</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>2880</v>
       </c>
       <c r="I19" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>199.39875663830043</v>
+        <v>193.45465757210587</v>
       </c>
       <c r="J19" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>68.047071528140577</v>
+        <v>69.978440548101531</v>
       </c>
       <c r="K19" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I20),2) + POWER((Table1368[[#This Row],[LED Y]]-J20),2)) - LEDSize</f>
-        <v>2.0395539189361189</v>
+        <v>4.0841222747872168</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -5789,30 +6749,30 @@
       </c>
       <c r="E20" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>13.225209841075269</v>
+        <v>9.5515404407765843</v>
       </c>
       <c r="F20" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-18.202852102336212</v>
+        <v>-13.146504296131708</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>3060</v>
       </c>
       <c r="I20" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>196.20285210233621</v>
+        <v>191.1465042961317</v>
       </c>
       <c r="J20" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>61.774790158924731</v>
+        <v>65.448459559223409</v>
       </c>
       <c r="K20" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I21),2) + POWER((Table1368[[#This Row],[LED Y]]-J21),2)) - LEDSize</f>
-        <v>2.0395539189361021</v>
+        <v>4.0841222747871635</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -5829,30 +6789,30 @@
       </c>
       <c r="E21" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>18.202914425085417</v>
+        <v>13.146549307006135</v>
       </c>
       <c r="F21" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-13.225124061157885</v>
+        <v>-9.5514784886140287</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>3240</v>
       </c>
       <c r="I21" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>191.22512406115789</v>
+        <v>187.55147848861404</v>
       </c>
       <c r="J21" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>56.797085574914583</v>
+        <v>61.853450692993867</v>
       </c>
       <c r="K21" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I22),2) + POWER((Table1368[[#This Row],[LED Y]]-J22),2)) - LEDSize</f>
-        <v>2.0395539189361118</v>
+        <v>4.0841222747871981</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -5869,30 +6829,30 @@
       </c>
       <c r="E22" s="2">
         <f>Radius*COS(Table1368[[#This Row],[Radians]])</f>
-        <v>21.398789403291346</v>
+        <v>15.454681235710417</v>
       </c>
       <c r="F22" s="2">
         <f>Radius*SIN(Table1368[[#This Row],[Radians]])</f>
-        <v>-6.952827631516973</v>
+        <v>-5.0214866227622581</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H22" s="5">
-        <f>Table1368[[#This Row],[Angle]]*10</f>
+        <f>(Table1368[[#This Row],[Angle]] + LEDRotation)*10</f>
         <v>3420</v>
       </c>
       <c r="I22" s="2">
         <f>Xo-Table1368[[#This Row],[y]]</f>
-        <v>184.95282763151698</v>
+        <v>183.02148662276227</v>
       </c>
       <c r="J22" s="2">
         <f>Yo-Table1368[[#This Row],[x]]</f>
-        <v>53.601210596708654</v>
+        <v>59.545318764289583</v>
       </c>
       <c r="K22" s="2">
         <f>SQRT(POWER((Table1368[[#This Row],[LED X]]-I23),2) + POWER((Table1368[[#This Row],[LED Y]]-J23),2)) - LEDSize</f>
-        <v>187.5633356231823</v>
+        <v>191.46430721655068</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -5997,4 +6957,1440 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>360/LEDCount * (Table13681012[[#This Row],[LED '#]]-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>34.9</v>
+      </c>
+      <c r="F3" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2700</v>
+      </c>
+      <c r="I3" s="4">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>178</v>
+      </c>
+      <c r="J3" s="4">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>40.1</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I4),2) + POWER((Table13681012[[#This Row],[Y2]]-J4),2)) - LEDSize</f>
+        <v>2.6530513099347592</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'R1':[2700, 178, 40.1], </v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>0.1047198</v>
+      </c>
+      <c r="E4" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>34.708813984627277</v>
+      </c>
+      <c r="F4" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>3.64804492578449</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2760</v>
+      </c>
+      <c r="I4" s="4">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>174.35195507421551</v>
+      </c>
+      <c r="J4" s="4">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>40.291186015372723</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I5),2) + POWER((Table13681012[[#This Row],[Y2]]-J5),2)) - LEDSize</f>
+        <v>6.2960898515689729</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C30':[2760, 174.351955074216, 40.2911860153727], </v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1.7453300000000001E-2</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>0.31415940000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>33.191870966638469</v>
+      </c>
+      <c r="F5" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>10.784697572673149</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>2880</v>
+      </c>
+      <c r="I5" s="4">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>167.21530242732686</v>
+      </c>
+      <c r="J5" s="4">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>41.808129033361531</v>
+      </c>
+      <c r="K5" s="4">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I6),2) + POWER((Table13681012[[#This Row],[Y2]]-J6),2)) - LEDSize</f>
+        <v>6.2960898515689863</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C29':[2880, 167.215302427327, 41.8081290333615], </v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="13">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>0.52359900000000004</v>
+      </c>
+      <c r="E6" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>30.224282676266458</v>
+      </c>
+      <c r="F6" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>17.450006782380889</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3000</v>
+      </c>
+      <c r="I6" s="4">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>160.54999321761912</v>
+      </c>
+      <c r="J6" s="4">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>44.775717323733545</v>
+      </c>
+      <c r="K6" s="4">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I7),2) + POWER((Table13681012[[#This Row],[Y2]]-J7),2)) - LEDSize</f>
+        <v>6.2960898515689756</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C28':[3000, 160.549993217619, 44.7757173237335], </v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="13">
+        <f>RingRadius-LEDSize/2 - LEDSizeBuffer</f>
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>0.7330386000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>25.93574707263307</v>
+      </c>
+      <c r="F7" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>23.352666309961375</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3120</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>154.64733369003864</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>49.06425292736693</v>
+      </c>
+      <c r="K7" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I8),2) + POWER((Table13681012[[#This Row],[Y2]]-J8),2)) - LEDSize</f>
+        <v>6.2960898515689872</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C27':[3120, 154.647333690039, 49.0642529273669], </v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>0.94247820000000004</v>
+      </c>
+      <c r="E8" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>20.51369390036194</v>
+      </c>
+      <c r="F8" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>28.234701389642023</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3240</v>
+      </c>
+      <c r="I8" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>149.76529861035797</v>
+      </c>
+      <c r="J8" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>54.486306099638057</v>
+      </c>
+      <c r="K8" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I9),2) + POWER((Table13681012[[#This Row],[Y2]]-J9),2)) - LEDSize</f>
+        <v>6.2960898515689792</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C26':[3240, 149.765298610358, 54.4863060996381], </v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>1.1519178000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>14.195093103355031</v>
+      </c>
+      <c r="F9" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>31.882743479617343</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3360</v>
+      </c>
+      <c r="I9" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>146.11725652038265</v>
+      </c>
+      <c r="J9" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>60.804906896644965</v>
+      </c>
+      <c r="K9" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I10),2) + POWER((Table13681012[[#This Row],[Y2]]-J10),2)) - LEDSize</f>
+        <v>6.2960898515689845</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C25':[3360, 146.117256520383, 60.804906896645], </v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+      <c r="D10">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>1.3613574000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>7.2560980922913503</v>
+      </c>
+      <c r="F10" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>34.137355499145592</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3480</v>
+      </c>
+      <c r="I10" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>143.8626445008544</v>
+      </c>
+      <c r="J10" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>67.743901907708647</v>
+      </c>
+      <c r="K10" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I11),2) + POWER((Table13681012[[#This Row],[Y2]]-J11),2)) - LEDSize</f>
+        <v>6.2960898515689792</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C24':[3480, 143.862644500854, 67.7439019077086], </v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>1.5707970000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-2.349485811569437E-5</v>
+      </c>
+      <c r="F11" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>34.89999999999209</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3600</v>
+      </c>
+      <c r="I11" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>143.10000000000792</v>
+      </c>
+      <c r="J11" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>75.000023494858112</v>
+      </c>
+      <c r="K11" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I12),2) + POWER((Table13681012[[#This Row],[Y2]]-J12),2)) - LEDSize</f>
+        <v>6.2960898515689818</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C23':[3600, 143.100000000008, 75.0000234948581], </v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>102</v>
+      </c>
+      <c r="D12">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>1.7802366000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-7.2561440551686571</v>
+      </c>
+      <c r="F12" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>34.137345729430116</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3720</v>
+      </c>
+      <c r="I12" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>143.86265427056989</v>
+      </c>
+      <c r="J12" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>82.256144055168662</v>
+      </c>
+      <c r="K12" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I13),2) + POWER((Table13681012[[#This Row],[Y2]]-J13),2)) - LEDSize</f>
+        <v>6.2960898515689827</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C22':[3720, 143.86265427057, 82.2561440551687], </v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>1.9896762000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-14.195136030593412</v>
+      </c>
+      <c r="F13" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>31.882724367170201</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3840</v>
+      </c>
+      <c r="I13" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>146.1172756328298</v>
+      </c>
+      <c r="J13" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>89.195136030593417</v>
+      </c>
+      <c r="K13" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I14),2) + POWER((Table13681012[[#This Row],[Y2]]-J14),2)) - LEDSize</f>
+        <v>6.2960898515689703</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C21':[3840, 146.11727563283, 89.1951360305934], </v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>126</v>
+      </c>
+      <c r="D14">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>2.1991158000000004</v>
+      </c>
+      <c r="E14" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-20.513731915833496</v>
+      </c>
+      <c r="F14" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>28.234673769769572</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>3960</v>
+      </c>
+      <c r="I14" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>149.76532623023041</v>
+      </c>
+      <c r="J14" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>95.513731915833489</v>
+      </c>
+      <c r="K14" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I15),2) + POWER((Table13681012[[#This Row],[Y2]]-J15),2)) - LEDSize</f>
+        <v>6.2960898515689872</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C20':[3960, 149.76532623023, 95.5137319158335], </v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>2.4085554</v>
+      </c>
+      <c r="E15" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-25.935778514877843</v>
+      </c>
+      <c r="F15" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>23.352631389785625</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4080</v>
+      </c>
+      <c r="I15" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>154.64736861021439</v>
+      </c>
+      <c r="J15" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>100.93577851487784</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I16),2) + POWER((Table13681012[[#This Row],[Y2]]-J16),2)) - LEDSize</f>
+        <v>6.2960898515689649</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C19':[4080, 154.647368610214, 100.935778514878], </v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>2.6179950000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-30.22430617110631</v>
+      </c>
+      <c r="F16" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>17.44996608808238</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4200</v>
+      </c>
+      <c r="I16" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>160.55003391191761</v>
+      </c>
+      <c r="J16" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>105.22430617110631</v>
+      </c>
+      <c r="K16" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I17),2) + POWER((Table13681012[[#This Row],[Y2]]-J17),2)) - LEDSize</f>
+        <v>6.2960898515689969</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C18':[4200, 160.550033911918, 105.224306171106], </v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>162</v>
+      </c>
+      <c r="D17">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>2.8274346000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-33.191885487235275</v>
+      </c>
+      <c r="F17" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>10.784652882789517</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4320</v>
+      </c>
+      <c r="I17" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>167.21534711721048</v>
+      </c>
+      <c r="J17" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>108.19188548723528</v>
+      </c>
+      <c r="K17" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I18),2) + POWER((Table13681012[[#This Row],[Y2]]-J18),2)) - LEDSize</f>
+        <v>6.2960898515689783</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C17':[4320, 167.21534711721, 108.191885487235], </v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>174</v>
+      </c>
+      <c r="D18">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>3.0368742000000002</v>
+      </c>
+      <c r="E18" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-34.708818896360739</v>
+      </c>
+      <c r="F18" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>3.6479981934797632</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4440</v>
+      </c>
+      <c r="I18" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>174.35200180652024</v>
+      </c>
+      <c r="J18" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>109.70881889636074</v>
+      </c>
+      <c r="K18" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I19),2) + POWER((Table13681012[[#This Row],[Y2]]-J19),2)) - LEDSize</f>
+        <v>6.2960898515689703</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C16':[4440, 174.35200180652, 109.708818896361], </v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>186</v>
+      </c>
+      <c r="D19">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>3.2463138000000002</v>
+      </c>
+      <c r="E19" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-34.708809072830888</v>
+      </c>
+      <c r="F19" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-3.6480916580826057</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4560</v>
+      </c>
+      <c r="I19" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>181.64809165808259</v>
+      </c>
+      <c r="J19" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>109.70880907283089</v>
+      </c>
+      <c r="K19" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I20),2) + POWER((Table13681012[[#This Row],[Y2]]-J20),2)) - LEDSize</f>
+        <v>6.296089851568996</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C15':[4560, 181.648091658083, 109.708809072831], </v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>198</v>
+      </c>
+      <c r="D20">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>3.4557534000000003</v>
+      </c>
+      <c r="E20" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-33.191856445981493</v>
+      </c>
+      <c r="F20" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-10.784742262537234</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4680</v>
+      </c>
+      <c r="I20" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>188.78474226253724</v>
+      </c>
+      <c r="J20" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>108.1918564459815</v>
+      </c>
+      <c r="K20" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I21),2) + POWER((Table13681012[[#This Row],[Y2]]-J21),2)) - LEDSize</f>
+        <v>6.2960898515689827</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C14':[4680, 188.784742262537, 108.191856445982], </v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>210</v>
+      </c>
+      <c r="D21">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>3.6651930000000004</v>
+      </c>
+      <c r="E21" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-30.224259181371821</v>
+      </c>
+      <c r="F21" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-17.450047476647768</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4800</v>
+      </c>
+      <c r="I21" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>195.45004747664777</v>
+      </c>
+      <c r="J21" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>105.22425918137182</v>
+      </c>
+      <c r="K21" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I22),2) + POWER((Table13681012[[#This Row],[Y2]]-J22),2)) - LEDSize</f>
+        <v>6.2960898515689845</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C13':[4800, 195.450047476648, 105.224259181372], </v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>222</v>
+      </c>
+      <c r="D22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>3.8746326000000004</v>
+      </c>
+      <c r="E22" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-25.935715630341281</v>
+      </c>
+      <c r="F22" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-23.352701230094794</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>4920</v>
+      </c>
+      <c r="I22" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>201.35270123009479</v>
+      </c>
+      <c r="J22" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>100.93571563034128</v>
+      </c>
+      <c r="K22" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I23),2) + POWER((Table13681012[[#This Row],[Y2]]-J23),2)) - LEDSize</f>
+        <v>6.2960898515689827</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C12':[4920, 201.352701230095, 100.935715630341], </v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>234</v>
+      </c>
+      <c r="D23" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>4.0840722000000005</v>
+      </c>
+      <c r="E23" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-20.5136558848532</v>
+      </c>
+      <c r="F23" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-28.234729009463287</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5040</v>
+      </c>
+      <c r="I23" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>206.23472900946328</v>
+      </c>
+      <c r="J23" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>95.513655884853193</v>
+      </c>
+      <c r="K23" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I24),2) + POWER((Table13681012[[#This Row],[Y2]]-J24),2)) - LEDSize</f>
+        <v>6.2960898515689578</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C11':[5040, 206.234729009463, 95.5136558848532], </v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>246</v>
+      </c>
+      <c r="D24" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>4.2935118000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-14.195050176090925</v>
+      </c>
+      <c r="F24" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-31.882762592006685</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5160</v>
+      </c>
+      <c r="I24" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>209.88276259200669</v>
+      </c>
+      <c r="J24" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>89.19505017609093</v>
+      </c>
+      <c r="K24" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I25),2) + POWER((Table13681012[[#This Row],[Y2]]-J25),2)) - LEDSize</f>
+        <v>6.2960898515690014</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C10':[5160, 209.882762592007, 89.1950501760909], </v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>258</v>
+      </c>
+      <c r="D25" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>4.5029514000000006</v>
+      </c>
+      <c r="E25" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>-7.2560521294008824</v>
+      </c>
+      <c r="F25" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-34.137365268799186</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5280</v>
+      </c>
+      <c r="I25" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>212.13736526879919</v>
+      </c>
+      <c r="J25" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>82.256052129400885</v>
+      </c>
+      <c r="K25" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I26),2) + POWER((Table13681012[[#This Row],[Y2]]-J26),2)) - LEDSize</f>
+        <v>6.2960898515689729</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C9':[5280, 212.137365268799, 82.2560521294009], </v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>270</v>
+      </c>
+      <c r="D26" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>4.7123910000000002</v>
+      </c>
+      <c r="E26" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>7.0484574331541796E-5</v>
+      </c>
+      <c r="F26" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-34.899999999928824</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5400</v>
+      </c>
+      <c r="I26" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>212.89999999992881</v>
+      </c>
+      <c r="J26" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>74.999929515425663</v>
+      </c>
+      <c r="K26" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I27),2) + POWER((Table13681012[[#This Row],[Y2]]-J27),2)) - LEDSize</f>
+        <v>6.2960898515689925</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C8':[5400, 212.899999999929, 74.9999295154257], </v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>282</v>
+      </c>
+      <c r="D27" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>4.9218306000000007</v>
+      </c>
+      <c r="E27" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>7.2561900180328243</v>
+      </c>
+      <c r="F27" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-34.137335959652752</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5520</v>
+      </c>
+      <c r="I27" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>212.13733595965275</v>
+      </c>
+      <c r="J27" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>67.743809981967175</v>
+      </c>
+      <c r="K27" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I28),2) + POWER((Table13681012[[#This Row],[Y2]]-J28),2)) - LEDSize</f>
+        <v>6.2960898515689596</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C7':[5520, 212.137335959653, 67.7438099819672], </v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>294</v>
+      </c>
+      <c r="D28" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>5.1312702000000003</v>
+      </c>
+      <c r="E28" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>14.195178957806059</v>
+      </c>
+      <c r="F28" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-31.882705254665265</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5640</v>
+      </c>
+      <c r="I28" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>209.88270525466527</v>
+      </c>
+      <c r="J28" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>60.804821042193943</v>
+      </c>
+      <c r="K28" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I29),2) + POWER((Table13681012[[#This Row],[Y2]]-J29),2)) - LEDSize</f>
+        <v>6.2960898515689916</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C6':[5640, 209.882705254665, 60.8048210421939], </v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>306</v>
+      </c>
+      <c r="D29" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>5.3407098000000008</v>
+      </c>
+      <c r="E29" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>20.513769931267863</v>
+      </c>
+      <c r="F29" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-28.234646149845943</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5760</v>
+      </c>
+      <c r="I29" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>206.23464614984596</v>
+      </c>
+      <c r="J29" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>54.486230068732141</v>
+      </c>
+      <c r="K29" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I30),2) + POWER((Table13681012[[#This Row],[Y2]]-J30),2)) - LEDSize</f>
+        <v>6.2960898515689729</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C5':[5760, 206.234646149846, 54.4862300687321], </v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>318</v>
+      </c>
+      <c r="D30" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>5.5501494000000005</v>
+      </c>
+      <c r="E30" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>25.935809957075598</v>
+      </c>
+      <c r="F30" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-23.352596469567533</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>5880</v>
+      </c>
+      <c r="I30" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>201.35259646956754</v>
+      </c>
+      <c r="J30" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>49.064190042924402</v>
+      </c>
+      <c r="K30" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I31),2) + POWER((Table13681012[[#This Row],[Y2]]-J31),2)) - LEDSize</f>
+        <v>6.2960898515689792</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C4':[5880, 201.352596469568, 49.0641900429244], </v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>330</v>
+      </c>
+      <c r="D31" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>5.7595890000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>30.224329665891361</v>
+      </c>
+      <c r="F31" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-17.449925393752242</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>6000</v>
+      </c>
+      <c r="I31" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>195.44992539375224</v>
+      </c>
+      <c r="J31" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>44.775670334108639</v>
+      </c>
+      <c r="K31" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I32),2) + POWER((Table13681012[[#This Row],[Y2]]-J32),2)) - LEDSize</f>
+        <v>6.2960898515689827</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C3':[6000, 195.449925393752, 44.7756703341086], </v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>342</v>
+      </c>
+      <c r="D32" s="22">
+        <f>Table13681012[[#This Row],[Angle]]*RadiansInDegree</f>
+        <v>5.9690286000000006</v>
+      </c>
+      <c r="E32" s="2">
+        <f>Radius*COS(Table13681012[[#This Row],[Radians]])</f>
+        <v>33.191900007771913</v>
+      </c>
+      <c r="F32" s="2">
+        <f>Radius*SIN(Table13681012[[#This Row],[Radians]])</f>
+        <v>-10.784608192886326</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="5">
+        <f>(Table13681012[[#This Row],[Angle]] + LEDRotation)*10</f>
+        <v>6120</v>
+      </c>
+      <c r="I32" s="2">
+        <f>Xo-Table13681012[[#This Row],[y]]</f>
+        <v>188.78460819288634</v>
+      </c>
+      <c r="J32" s="2">
+        <f>Yo-Table13681012[[#This Row],[x]]</f>
+        <v>41.808099992228087</v>
+      </c>
+      <c r="K32" s="2">
+        <f>SQRT(POWER((Table13681012[[#This Row],[X2]]-I33),2) + POWER((Table13681012[[#This Row],[Y2]]-J33),2)) - LEDSize</f>
+        <v>192.35859307385786</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f>CONCATENATE("'",Table13681012[Name],"':[",Table13681012[Orient],", ",Table13681012[X2],", ",Table13681012[Y2],"], ")</f>
+        <v xml:space="preserve">'C2':[6120, 188.784608192886, 41.8080999922281], </v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>